--- a/biology/Botanique/Silène_acaule/Silène_acaule.xlsx
+++ b/biology/Botanique/Silène_acaule/Silène_acaule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sil%C3%A8ne_acaule</t>
+          <t>Silène_acaule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silene acaulis
 Le silène acaule (Silene acaulis) est une plante vivace rampante, appartenant à la famille des Caryophyllacées et au genre Silene.
 Il pousse en montagne, dans la plupart des pays d'Europe et dans l'ouest des États-Unis, ainsi que dans la toundra du Groenland et du Svalbard; les feuilles forment des sortes de tapis de mousse dont émergent des fleurs roses à court pédoncule.
-C'est une plante ayant pour capacité une longévité exceptionnelle, on peut trouver des individus approchant les mille ans, en altitude[1].
+C'est une plante ayant pour capacité une longévité exceptionnelle, on peut trouver des individus approchant les mille ans, en altitude.
 C'est une plante trimonoïque.
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sil%C3%A8ne_acaule</t>
+          <t>Silène_acaule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante rampante formant des coussins d'un vert vif entre les rochers. Nombreuses feuilles coriaces très petites, linéaires et pointues.
 Malgré son qualificatif d'acaule (= sans tige), ses fleurs, le plus souvent solitaires, sont portées par de courts pédoncules. Leur couleur varie du rose pâle au pourpre, elles sont plus rarement blanches. Le calice est souvent teinté de rouge. Corolle à cinq pétales échancrés et à étamines saillantes (10 étamines, 3 styles).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sil%C3%A8ne_acaule</t>
+          <t>Silène_acaule</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(sous-espèce acaulis)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(sous-espèce acaulis)
 Organes reproducteurs :
 Type d'inflorescence : cyme bipare
 Répartition des sexes : gynodioique
@@ -562,8 +578,43 @@
 Habitat type : pelouses basophiles arctico-alpines climaciques
 Aire de répartition : arctico-alpine
 Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004. 
-Sous-espèces et variétés
-Silene acaulis (L.) Jacq. subsp. acaulis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Silène_acaule</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sil%C3%A8ne_acaule</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Silene acaulis (L.) Jacq. subsp. acaulis
 Silene acaulis (L.) Jacq. subsp. bryoides (Jord.) Nyman
 Silene acaulis (L.) Jacq. subsp. cenisia Killias
 Silene acaulis (L.) Jacq. subsp. longiscapa Vierh.
